--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT102-001 - Akuntansi - Transaksi - ILT - Dep Bunga JT - Cek Jurnal Bunga Deposito PRI01 DTDEP202200388 PRI01 No Bilyet  A-337360.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT102-001 - Akuntansi - Transaksi - ILT - Dep Bunga JT - Cek Jurnal Bunga Deposito PRI01 DTDEP202200388 PRI01 No Bilyet  A-337360.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62927\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB29BF0-E966-45A3-ACAD-C0E4EFB1157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT102-001" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="79">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -106,9 +105,6 @@
     <t>TANGGAL_AKHIR</t>
   </si>
   <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>DPLKAKT102-001</t>
   </si>
   <si>
@@ -128,13 +124,145 @@
   </si>
   <si>
     <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200297 PRI01-Deposito Pasar Uang No Bilyet : PAB-1685488</t>
+  </si>
+  <si>
+    <t>18/08/2022</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang BPD DKI Jakarta DTDEP202200092 PRI01-Deposito Pasar Uang No Bilyet : 024 049</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang BPD DKI Jakarta DTDEP202200097 PRI01-Deposito Pasar Uang No Bilyet : 035 123</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Permata tbk DTDEP202200369 PRI01-Deposito Pasar Uang No Bilyet : 6972224558</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Tabungan Negara DTDEP202200014 PRI01-Deposito Pasar Uang No Bilyet : A-2113509</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Tabungan Negara DTDEP202200002 PRI01-Deposito Pasar Uang No Bilyet : A-2118519</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Tabungan Negara DTDEP202200010 PRI01-Deposito Pasar Uang No Bilyet : A-2175701</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Mega DTDEP202200046 PRI01-Deposito Pasar Uang No Bilyet : AB-172012</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Mega DTDEP202200047 PRI01-Deposito Pasar Uang No Bilyet : AB-172015</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Mega DTDEP202200048 PRI01-Deposito Pasar Uang No Bilyet : AB-172016</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Tabungan Negara DTDEP202200400 PRI01-Deposito Pasar Uang No Bilyet : DLK/3/2938</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200182 PRI01-Deposito Pasar Uang No Bilyet : PAB-1285149</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200131 PRI01-Deposito Pasar Uang No Bilyet : PAB-1312097</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200334 PRI01-Deposito Pasar Uang No Bilyet : PAB-1375888</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200347 PRI01-Deposito Pasar Uang No Bilyet : PAB-1427064</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200199 PRI01-Deposito Pasar Uang No Bilyet : PAB-1480456</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200277 PRI01-Deposito Pasar Uang No Bilyet : PAB-1558789</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200143 PRI01-Deposito Pasar Uang No Bilyet : PAB-1599038</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202100052 PRI01-Deposito Pasar Uang No Bilyet : PAB-1653241</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200223 PRI01-Deposito Pasar Uang No Bilyet : PAB-1655245</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Negara Indonesia 1946 DTDEP202200207 PRI01-Deposito Pasar Uang No Bilyet : PAB-1697710</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Tabungan Negara DTDEP202200439 PRI01-Deposito Pasar Uang No Bilyet : SY-125123</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Bunga Deposito PRI01-Deposito Pasar Uang Bank Tabungan Negara DTDEP202200424 PRI01-Deposito Pasar Uang No Bilyet : SY-125338</t>
+  </si>
+  <si>
+    <t>024 049</t>
+  </si>
+  <si>
+    <t>035 123</t>
+  </si>
+  <si>
+    <t>A-2113509</t>
+  </si>
+  <si>
+    <t>A-2118519</t>
+  </si>
+  <si>
+    <t>A-2175701</t>
+  </si>
+  <si>
+    <t>AB-172012</t>
+  </si>
+  <si>
+    <t>AB-172015</t>
+  </si>
+  <si>
+    <t>AB-172016</t>
+  </si>
+  <si>
+    <t>DLK/3/2938</t>
+  </si>
+  <si>
+    <t>PAB-1285149</t>
+  </si>
+  <si>
+    <t>PAB-1312097</t>
+  </si>
+  <si>
+    <t>PAB-1375888</t>
+  </si>
+  <si>
+    <t>PAB-1427064</t>
+  </si>
+  <si>
+    <t>PAB-1480456</t>
+  </si>
+  <si>
+    <t>PAB-1558789</t>
+  </si>
+  <si>
+    <t>PAB-1599038</t>
+  </si>
+  <si>
+    <t>PAB-1653241</t>
+  </si>
+  <si>
+    <t>PAB-1655245</t>
+  </si>
+  <si>
+    <t>PAB-1697710</t>
+  </si>
+  <si>
+    <t>SY-125123</t>
+  </si>
+  <si>
+    <t>SY-125338</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,18 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -172,6 +288,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,16 +317,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -211,15 +328,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,22 +742,19 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="120" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="2" t="str">
         <f>"Username : "&amp;G2&amp;",
 Password : "&amp;H2&amp;",
 Jenis Laporan : "&amp;N2&amp;",
@@ -651,16 +768,16 @@
 Portofolio : PU02,
 Periode Tanggal : 12/08/2022 sd 12/08/2022</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>34092</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -669,44 +786,41 @@
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="1">
         <v>750</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>32</v>
+      <c r="T2" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="120" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="2" t="str">
         <f>"Username : "&amp;G3&amp;",
 Password : "&amp;H3&amp;",
 Jenis Laporan : "&amp;N3&amp;",
@@ -720,16 +834,16 @@
 Portofolio : PU02,
 Periode Tanggal : 12/08/2022 sd 12/08/2022</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>34092</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -738,31 +852,1459 @@
       <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="1">
         <v>750</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="S3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F25" si="0">"Username : "&amp;G4&amp;",
+Password : "&amp;H4&amp;",
+Jenis Laporan : "&amp;N4&amp;",
+Kantor : "&amp;O4&amp;",
+Portofolio : "&amp;Q4&amp;",
+Periode Tanggal : "&amp;S4&amp;" sd "&amp;T4</f>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G4" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1">
+        <v>750</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G5" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1">
+        <v>750</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G6" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1">
+        <v>750</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6972224558</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G7" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1">
+        <v>750</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G8" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>750</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="1">
+        <v>750</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G10" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1">
+        <v>750</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G11" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1">
+        <v>750</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G12" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1">
+        <v>750</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G13" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1">
+        <v>750</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G14" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1">
+        <v>750</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G15" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="1">
+        <v>750</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G16" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="1">
+        <v>750</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G17" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1">
+        <v>750</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G18" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="1">
+        <v>750</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G19" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1">
+        <v>750</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G20" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1">
+        <v>750</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G21" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1">
+        <v>750</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G22" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1">
+        <v>750</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G23" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="1">
+        <v>750</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G24" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1">
+        <v>750</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="120" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 34092,
+Password : bni1234,
+Jenis Laporan : Laporan Penerimaan Bunga,
+Kantor : 750,
+Portofolio : PU02,
+Periode Tanggal : 18/08/2022 sd 18/08/2022</v>
+      </c>
+      <c r="G25" s="2">
+        <v>34092</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="1">
+        <v>750</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
